--- a/feitian/项目分工表.xlsx
+++ b/feitian/项目分工表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9407"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>飞天人事基础项目分工</t>
   </si>
@@ -44,6 +44,9 @@
   <si>
     <t>杨钧猛</t>
   </si>
+  <si>
+    <t>后端增删查改已完成</t>
+  </si>
 </sst>
 </file>
 
@@ -55,14 +58,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,48 +531,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,101 +585,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +685,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,7 +1040,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J6"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1198,7 +1197,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1216,8 +1215,14 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
+      <c r="N9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:17">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1231,9 +1236,13 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A3:J4"/>
     <mergeCell ref="K3:M4"/>
@@ -1243,6 +1252,7 @@
     <mergeCell ref="K7:M8"/>
     <mergeCell ref="A9:J10"/>
     <mergeCell ref="K9:M10"/>
+    <mergeCell ref="N9:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/feitian/项目分工表.xlsx
+++ b/feitian/项目分工表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="10007"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>飞天人事基础项目分工</t>
   </si>
@@ -45,7 +45,43 @@
     <t>杨钧猛</t>
   </si>
   <si>
-    <t>后端增删查改已完成</t>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>请假申请</t>
+  </si>
+  <si>
+    <t>加班申请</t>
+  </si>
+  <si>
+    <t>工资条</t>
+  </si>
+  <si>
+    <t>工作报告</t>
+  </si>
+  <si>
+    <t>项目人员管理</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>系统监控</t>
+  </si>
+  <si>
+    <t>在线用户</t>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>服务监控</t>
+  </si>
+  <si>
+    <t>数据监控</t>
+  </si>
+  <si>
+    <t>打卡记录</t>
   </si>
 </sst>
 </file>
@@ -405,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -426,6 +462,125 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -537,7 +692,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,7 +722,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,28 +740,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,10 +770,10 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,17 +831,74 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,10 +1249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1061,15 +1273,15 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1"/>
@@ -1085,15 +1297,15 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
@@ -1198,51 +1410,275 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="27">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A3:J4"/>
     <mergeCell ref="K3:M4"/>
@@ -1250,9 +1686,16 @@
     <mergeCell ref="K5:M6"/>
     <mergeCell ref="A7:J8"/>
     <mergeCell ref="K7:M8"/>
+    <mergeCell ref="K9:M10"/>
     <mergeCell ref="A9:J10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="N9:Q10"/>
+    <mergeCell ref="A11:H16"/>
+    <mergeCell ref="A17:H20"/>
+    <mergeCell ref="A21:J22"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="K17:M20"/>
+    <mergeCell ref="K21:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/feitian/项目分工表.xlsx
+++ b/feitian/项目分工表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007"/>
+    <workbookView windowWidth="22368" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>飞天人事基础项目分工</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>打卡记录</t>
+  </si>
+  <si>
+    <t>员工不良信息记录</t>
   </si>
 </sst>
 </file>
@@ -514,18 +517,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -536,9 +530,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -831,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,36 +859,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,12 +884,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:M12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1273,15 +1258,15 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1"/>
@@ -1297,15 +1282,15 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
@@ -1421,16 +1406,16 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="14"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4"/>
@@ -1442,14 +1427,14 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
@@ -1462,15 +1447,15 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="6"/>
@@ -1481,13 +1466,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="6"/>
@@ -1498,15 +1483,15 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="18" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6"/>
@@ -1517,13 +1502,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6"/>
@@ -1534,15 +1519,15 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6"/>
@@ -1556,119 +1541,153 @@
       <c r="I16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="18" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
@@ -1696,6 +1715,8 @@
     <mergeCell ref="K15:M16"/>
     <mergeCell ref="K17:M20"/>
     <mergeCell ref="K21:M22"/>
+    <mergeCell ref="A23:J24"/>
+    <mergeCell ref="K23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
